--- a/hybridOfActiTime/data/ActiTime.xlsx
+++ b/hybridOfActiTime/data/ActiTime.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="22464" windowHeight="8220" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Valid" sheetId="2" r:id="rId2"/>
+    <sheet name="manager" sheetId="3" r:id="rId3"/>
+    <sheet name="CustomerAndManager" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>USERNAME</t>
   </si>
@@ -64,13 +65,49 @@
   </si>
   <si>
     <t>Amin</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>TEST_ENGG1</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Manager1</t>
+  </si>
+  <si>
+    <t>managerFirst</t>
+  </si>
+  <si>
+    <t>Customer_Name</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>ICICI BANK</t>
+  </si>
+  <si>
+    <t>WebApplication</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +129,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +148,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -138,11 +189,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -441,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -538,24 +592,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hybridOfActiTime/data/ActiTime.xlsx
+++ b/hybridOfActiTime/data/ActiTime.xlsx
@@ -9,15 +9,16 @@
   <sheets>
     <sheet name="InvalidData" sheetId="1" r:id="rId1"/>
     <sheet name="Valid" sheetId="2" r:id="rId2"/>
-    <sheet name="manager" sheetId="3" r:id="rId3"/>
-    <sheet name="CustomerAndManager" sheetId="4" r:id="rId4"/>
+    <sheet name="admin" sheetId="3" r:id="rId3"/>
+    <sheet name="CustomerAndProject" sheetId="4" r:id="rId4"/>
+    <sheet name="manager" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>USERNAME</t>
   </si>
@@ -79,18 +80,9 @@
     <t>LAST_NAME</t>
   </si>
   <si>
-    <t>TEST_ENGG1</t>
-  </si>
-  <si>
     <t>Developer</t>
   </si>
   <si>
-    <t>Manager1</t>
-  </si>
-  <si>
-    <t>managerFirst</t>
-  </si>
-  <si>
     <t>Customer_Name</t>
   </si>
   <si>
@@ -101,6 +93,12 @@
   </si>
   <si>
     <t>WebApplication</t>
+  </si>
+  <si>
+    <t>Pritee</t>
+  </si>
+  <si>
+    <t>Gore</t>
   </si>
 </sst>
 </file>
@@ -496,7 +494,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -595,7 +593,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -626,7 +624,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -653,16 +651,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +673,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -686,21 +684,35 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>